--- a/Code/HA-Models/Target_AggMPCX_LiquWealth/LiquWealth_Distribution_a.xlsx
+++ b/Code/HA-Models/Target_AggMPCX_LiquWealth/LiquWealth_Distribution_a.xlsx
@@ -410,7 +410,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>8.085743152828221e-20</v>
+        <v>8.07935158411593e-20</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -421,7 +421,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>6.3697104358197e-07</v>
+        <v>8.206277270989784e-07</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -432,7 +432,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>2.131424473481073e-05</v>
+        <v>2.23779188629302e-05</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -443,7 +443,7 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>7.35351800623174e-05</v>
+        <v>7.573787435423437e-05</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -454,7 +454,7 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.0001533749879172719</v>
+        <v>0.0001565820694395545</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -465,7 +465,7 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.0002555902364545133</v>
+        <v>0.0002598392705741512</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -476,7 +476,7 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.0003818714356747142</v>
+        <v>0.0003873523051186568</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -487,7 +487,7 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.0005318879910543947</v>
+        <v>0.0005388153097449909</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -498,7 +498,7 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.0007072376351578894</v>
+        <v>0.0007157159976619268</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -509,7 +509,7 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.0009066807018264271</v>
+        <v>0.0009164080556681364</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -520,7 +520,7 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.001126133864126425</v>
+        <v>0.00113724746546654</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -531,7 +531,7 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.001364833858830519</v>
+        <v>0.00137742202990888</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -542,7 +542,7 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.001622557468824507</v>
+        <v>0.001636798894551202</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -553,7 +553,7 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.001899945743565706</v>
+        <v>0.001915704793213038</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -564,7 +564,7 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.002197223633756558</v>
+        <v>0.002214846231486343</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -575,7 +575,7 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.002513786954827399</v>
+        <v>0.002533225569644069</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -586,7 +586,7 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.00284939137750602</v>
+        <v>0.0028705157302316</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -597,7 +597,7 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.003203155570975078</v>
+        <v>0.003225977552421121</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -608,7 +608,7 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.003576173122128548</v>
+        <v>0.003600734684829313</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -619,7 +619,7 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.003967120785419632</v>
+        <v>0.003993384427822221</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -630,7 +630,7 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.004376857946078211</v>
+        <v>0.004405037401246941</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -641,7 +641,7 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.004806753629850281</v>
+        <v>0.004836930104500595</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -652,7 +652,7 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.005256593742945831</v>
+        <v>0.005288545498289163</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -663,7 +663,7 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.005725241458778728</v>
+        <v>0.005758988532915316</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -674,7 +674,7 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.006211801449901572</v>
+        <v>0.006247079536544818</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -685,7 +685,7 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.006714426516084413</v>
+        <v>0.006751273533702788</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -696,7 +696,7 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>0.007233325681299714</v>
+        <v>0.007271714010155402</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -707,7 +707,7 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>0.007767695295091645</v>
+        <v>0.007807724411860992</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -718,7 +718,7 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>0.008318286352951457</v>
+        <v>0.008360050424882165</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -729,7 +729,7 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>0.008884589609645282</v>
+        <v>0.00892794483291731</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -740,7 +740,7 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>0.009467355562945194</v>
+        <v>0.009512533920982984</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -751,7 +751,7 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>0.010066504771672</v>
+        <v>0.01011329492152119</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -762,7 +762,7 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>0.0106805517872171</v>
+        <v>0.01072900776307507</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -773,7 +773,7 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>0.01131043776214948</v>
+        <v>0.01136039909804755</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -784,7 +784,7 @@
         <v>35</v>
       </c>
       <c r="C37">
-        <v>0.01195537596837273</v>
+        <v>0.01200687007273781</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -795,7 +795,7 @@
         <v>36</v>
       </c>
       <c r="C38">
-        <v>0.01261582865891128</v>
+        <v>0.01266886552130627</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -806,7 +806,7 @@
         <v>37</v>
       </c>
       <c r="C39">
-        <v>0.01328555803768042</v>
+        <v>0.01333732047177948</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -817,7 +817,7 @@
         <v>38</v>
       </c>
       <c r="C40">
-        <v>0.01396504385387329</v>
+        <v>0.01401820093161517</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -828,7 +828,7 @@
         <v>39</v>
       </c>
       <c r="C41">
-        <v>0.0146610975309548</v>
+        <v>0.014715722185338</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -839,7 +839,7 @@
         <v>40</v>
       </c>
       <c r="C42">
-        <v>0.01537238578111548</v>
+        <v>0.01542842627153215</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -850,7 +850,7 @@
         <v>41</v>
       </c>
       <c r="C43">
-        <v>0.0161004423561354</v>
+        <v>0.01615827120007961</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -861,7 +861,7 @@
         <v>42</v>
       </c>
       <c r="C44">
-        <v>0.01684454300758253</v>
+        <v>0.01690388980595307</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -872,7 +872,7 @@
         <v>43</v>
       </c>
       <c r="C45">
-        <v>0.01760475701558608</v>
+        <v>0.01766587422192003</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -883,7 +883,7 @@
         <v>44</v>
       </c>
       <c r="C46">
-        <v>0.01838236779082632</v>
+        <v>0.01844533492821682</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -894,7 +894,7 @@
         <v>45</v>
       </c>
       <c r="C47">
-        <v>0.01917773503494535</v>
+        <v>0.01924253603025031</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -905,7 +905,7 @@
         <v>46</v>
       </c>
       <c r="C48">
-        <v>0.0199907616768168</v>
+        <v>0.02005725407648123</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -916,7 +916,7 @@
         <v>47</v>
       </c>
       <c r="C49">
-        <v>0.02082216324810075</v>
+        <v>0.02089056757887769</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -927,7 +927,7 @@
         <v>48</v>
       </c>
       <c r="C50">
-        <v>0.02167328516315234</v>
+        <v>0.02174372600213246</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -938,7 +938,7 @@
         <v>49</v>
       </c>
       <c r="C51">
-        <v>0.02254420563942454</v>
+        <v>0.02261678531150274</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -949,7 +949,7 @@
         <v>50</v>
       </c>
       <c r="C52">
-        <v>0.0234338550455327</v>
+        <v>0.02350873263219317</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -960,7 +960,7 @@
         <v>51</v>
       </c>
       <c r="C53">
-        <v>0.02434330045066745</v>
+        <v>0.02442030280668324</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -971,7 +971,7 @@
         <v>52</v>
       </c>
       <c r="C54">
-        <v>0.02527474915592974</v>
+        <v>0.02535365183478022</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -982,7 +982,7 @@
         <v>53</v>
       </c>
       <c r="C55">
-        <v>0.02622740758303212</v>
+        <v>0.02630820330665203</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -993,7 +993,7 @@
         <v>54</v>
       </c>
       <c r="C56">
-        <v>0.02720146927476498</v>
+        <v>0.02728418267133813</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1004,7 +1004,7 @@
         <v>55</v>
       </c>
       <c r="C57">
-        <v>0.02819752200700636</v>
+        <v>0.02828246187228309</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1015,7 +1015,7 @@
         <v>56</v>
       </c>
       <c r="C58">
-        <v>0.02921795826679546</v>
+        <v>0.02930506179021802</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1026,7 +1026,7 @@
         <v>57</v>
       </c>
       <c r="C59">
-        <v>0.03026238146764812</v>
+        <v>0.03035205458369494</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1037,7 +1037,7 @@
         <v>58</v>
       </c>
       <c r="C60">
-        <v>0.03132999056959621</v>
+        <v>0.03142183780057763</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1048,7 +1048,7 @@
         <v>59</v>
       </c>
       <c r="C61">
-        <v>0.0324212344119315</v>
+        <v>0.03251452908254825</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1059,7 +1059,7 @@
         <v>60</v>
       </c>
       <c r="C62">
-        <v>0.03353629811075063</v>
+        <v>0.03363187035970613</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1070,7 +1070,7 @@
         <v>61</v>
       </c>
       <c r="C63">
-        <v>0.03467940358037837</v>
+        <v>0.03477711001748578</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1081,7 +1081,7 @@
         <v>62</v>
       </c>
       <c r="C64">
-        <v>0.03585077017241479</v>
+        <v>0.03595083744219016</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1092,7 +1092,7 @@
         <v>63</v>
       </c>
       <c r="C65">
-        <v>0.03705240886035385</v>
+        <v>0.0371555269686055</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1103,7 +1103,7 @@
         <v>64</v>
       </c>
       <c r="C66">
-        <v>0.0382850396873789</v>
+        <v>0.03839109649630844</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1114,7 +1114,7 @@
         <v>65</v>
       </c>
       <c r="C67">
-        <v>0.03955057939649206</v>
+        <v>0.03966005693275031</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1125,7 +1125,7 @@
         <v>66</v>
       </c>
       <c r="C68">
-        <v>0.04085017879306675</v>
+        <v>0.04096291983325634</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1136,7 +1136,7 @@
         <v>67</v>
       </c>
       <c r="C69">
-        <v>0.04218568381414365</v>
+        <v>0.04230165193554888</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1147,7 +1147,7 @@
         <v>68</v>
       </c>
       <c r="C70">
-        <v>0.0435596138454057</v>
+        <v>0.04367891555153775</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1158,7 +1158,7 @@
         <v>69</v>
       </c>
       <c r="C71">
-        <v>0.04497108455950805</v>
+        <v>0.04509357929615095</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1169,7 +1169,7 @@
         <v>70</v>
       </c>
       <c r="C72">
-        <v>0.04642362340632923</v>
+        <v>0.04655040573137537</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1180,7 +1180,7 @@
         <v>71</v>
       </c>
       <c r="C73">
-        <v>0.04792130434925188</v>
+        <v>0.04805264283200314</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1191,7 +1191,7 @@
         <v>72</v>
       </c>
       <c r="C74">
-        <v>0.04947039918743784</v>
+        <v>0.04960658795318987</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1202,7 +1202,7 @@
         <v>73</v>
       </c>
       <c r="C75">
-        <v>0.05107297815991162</v>
+        <v>0.0512147171959176</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1213,7 +1213,7 @@
         <v>74</v>
       </c>
       <c r="C76">
-        <v>0.05273345840934886</v>
+        <v>0.05288084584893299</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1224,7 +1224,7 @@
         <v>75</v>
       </c>
       <c r="C77">
-        <v>0.05446306593817489</v>
+        <v>0.05461681226656103</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1235,7 +1235,7 @@
         <v>76</v>
       </c>
       <c r="C78">
-        <v>0.05626888289845625</v>
+        <v>0.05642939753113894</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1246,7 +1246,7 @@
         <v>77</v>
       </c>
       <c r="C79">
-        <v>0.05815501349497321</v>
+        <v>0.05832593587632687</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1257,7 +1257,7 @@
         <v>78</v>
       </c>
       <c r="C80">
-        <v>0.06013580803250038</v>
+        <v>0.06031742270101735</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1268,7 +1268,7 @@
         <v>79</v>
       </c>
       <c r="C81">
-        <v>0.06222571287253133</v>
+        <v>0.06242005772276046</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1279,7 +1279,7 @@
         <v>80</v>
       </c>
       <c r="C82">
-        <v>0.0644501558615166</v>
+        <v>0.06466123795015741</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1290,7 +1290,7 @@
         <v>81</v>
       </c>
       <c r="C83">
-        <v>0.06682983180211974</v>
+        <v>0.0670607458654728</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1301,7 +1301,7 @@
         <v>82</v>
       </c>
       <c r="C84">
-        <v>0.06939559227271859</v>
+        <v>0.06964831441477129</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1312,7 +1312,7 @@
         <v>83</v>
       </c>
       <c r="C85">
-        <v>0.07217553679490175</v>
+        <v>0.07245653285677427</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1323,7 +1323,7 @@
         <v>84</v>
       </c>
       <c r="C86">
-        <v>0.07522129557634581</v>
+        <v>0.0755373598240823</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1334,7 +1334,7 @@
         <v>85</v>
       </c>
       <c r="C87">
-        <v>0.07858962562022083</v>
+        <v>0.07894512477135009</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1345,7 +1345,7 @@
         <v>86</v>
       </c>
       <c r="C88">
-        <v>0.08238257347173915</v>
+        <v>0.08278800648020131</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1356,7 +1356,7 @@
         <v>87</v>
       </c>
       <c r="C89">
-        <v>0.08672453485656577</v>
+        <v>0.08718272005005409</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1367,7 +1367,7 @@
         <v>88</v>
       </c>
       <c r="C90">
-        <v>0.09188121124762971</v>
+        <v>0.09240431778654144</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1378,7 +1378,7 @@
         <v>89</v>
       </c>
       <c r="C91">
-        <v>0.098957654746527</v>
+        <v>0.09951988233572935</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1389,7 +1389,7 @@
         <v>90</v>
       </c>
       <c r="C92">
-        <v>0.1104503988439632</v>
+        <v>0.1109988460338147</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1400,7 +1400,7 @@
         <v>91</v>
       </c>
       <c r="C93">
-        <v>0.1280666764103415</v>
+        <v>0.1285879325023738</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1411,7 +1411,7 @@
         <v>92</v>
       </c>
       <c r="C94">
-        <v>0.1526667707012364</v>
+        <v>0.153151319026551</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1422,7 +1422,7 @@
         <v>93</v>
       </c>
       <c r="C95">
-        <v>0.185466100262472</v>
+        <v>0.1859046738369165</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1433,7 +1433,7 @@
         <v>94</v>
       </c>
       <c r="C96">
-        <v>0.2284062257764172</v>
+        <v>0.228789152610069</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1444,7 +1444,7 @@
         <v>95</v>
       </c>
       <c r="C97">
-        <v>0.2834455485342489</v>
+        <v>0.2837645331657235</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1455,7 +1455,7 @@
         <v>96</v>
       </c>
       <c r="C98">
-        <v>0.3530839375546492</v>
+        <v>0.353330784610925</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1466,7 +1466,7 @@
         <v>97</v>
       </c>
       <c r="C99">
-        <v>0.4409728132676559</v>
+        <v>0.4411414096153311</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1477,7 +1477,7 @@
         <v>98</v>
       </c>
       <c r="C100">
-        <v>0.5539993238435331</v>
+        <v>0.5540888278555111</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1488,7 +1488,7 @@
         <v>99</v>
       </c>
       <c r="C101">
-        <v>0.7114591177079163</v>
+        <v>0.7114752913282258</v>
       </c>
     </row>
     <row r="102" spans="1:3">
